--- a/data/multilingual_tmwb_template.xlsx
+++ b/data/multilingual_tmwb_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">Boolean. Contents of cells will be segmented if possible (if the same number of sentences, line breaks, etc. Is found on both languages)</t>
   </si>
   <si>
+    <t xml:space="preserve">not implemented yet / nobody has requested it</t>
+  </si>
+  <si>
     <t xml:space="preserve">remove_html_tags</t>
   </si>
   <si>
@@ -123,6 +126,12 @@
   </si>
   <si>
     <t xml:space="preserve">worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String. The name of the worksheet containing the translations. This value is mandatory if there are more than one worksheet, but it can be left empty if there’s only one worksheet (other than this ‘config’).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header_row</t>
   </si>
   <si>
     <r>
@@ -133,16 +142,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">String. The name of the worksheet containing the translations. </t>
+      <t xml:space="preserve">Integer: Indicate the row containing the language codes. Starts with index 0 (row 1). </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <i val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">This value is mandatory if there are more than one worksheet, but i</t>
+      <t xml:space="preserve">DEPRECATED</t>
     </r>
     <r>
       <rPr>
@@ -152,17 +163,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">t can be left empty if there’s only one worksheet (other than this ‘config’).</t>
+      <t xml:space="preserve">: Value 0 (first row) is mandatory.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">header_row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer. Indicate the row containing the language codes.Starts with index 0 (row 1).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop it, make first row compulsory for headers.</t>
   </si>
   <si>
     <t xml:space="preserve">comment_column</t>
@@ -237,10 +239,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -311,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,6 +354,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -660,14 +668,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="72.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -738,87 +747,105 @@
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="11" t="n">
+    </row>
+    <row r="14" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -826,9 +853,12 @@
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -852,42 +882,42 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C20" activeCellId="1" sqref="D15 C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="57.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="16" width="57.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="57.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="25.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="17" width="57.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="57.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
     </row>

--- a/data/multilingual_tmwb_template.xlsx
+++ b/data/multilingual_tmwb_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="QUESTIONNAIRE" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="QUESTIONNAIRE" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">QUESTIONNAIRE!$A$1:$D$2</definedName>
@@ -182,16 +182,16 @@
     <t xml:space="preserve">ces-CZE</t>
   </si>
   <si>
-    <t xml:space="preserve">foo</t>
+    <t xml:space="preserve">This bar is great. That bar is awful.</t>
   </si>
   <si>
     <t xml:space="preserve">blabla</t>
   </si>
   <si>
-    <t xml:space="preserve">bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baz</t>
+    <t xml:space="preserve">Този бар е страхотен. Онзи бар е ужасен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenhle bar je skvělý, ale tenhle bar je hrozný.</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,7 +417,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -489,178 +489,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546a"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472c4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ed7d31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="ffc000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70ad47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563c1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954f72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -668,15 +496,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="72.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,10 +707,10 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C20" activeCellId="1" sqref="D15 C20"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
